--- a/data/trans_bre/P7B_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>23,54%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 10,02</t>
+          <t>-3,8; 16,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 9,19</t>
+          <t>-3,12; 17,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 11,19</t>
+          <t>-4,99; 16,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 10,56</t>
+          <t>-3,23; 17,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 39,61</t>
+          <t>-9,61; 61,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 34,16</t>
+          <t>-8,4; 72,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 42,19</t>
+          <t>-13,69; 63,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 41,57</t>
+          <t>-9,53; 75,62</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>18,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>18,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>18,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>16,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>62,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>52,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 18,44</t>
+          <t>7,39; 28,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 19,11</t>
+          <t>7,52; 29,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 18,86</t>
+          <t>7,13; 31,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 18,52</t>
+          <t>4,65; 28,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 65,09</t>
+          <t>21,52; 123,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 65,43</t>
+          <t>19,37; 124,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 66,81</t>
+          <t>20,25; 138,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 66,63</t>
+          <t>12,36; 122,79</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,75</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>-2,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 27,95</t>
+          <t>-38,07; 28,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 29,39</t>
+          <t>-39,2; 28,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 33,64</t>
+          <t>-30,58; 33,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 29,32</t>
+          <t>-34,98; 28,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 150,73</t>
+          <t>-68,57; 156,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 159,79</t>
+          <t>-69,84; 160,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 211,01</t>
+          <t>-55,07; 203,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 167,3</t>
+          <t>-62,03; 144,22</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>31,08%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 11,64</t>
+          <t>1,42; 16,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 12,76</t>
+          <t>2,08; 17,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 12,45</t>
+          <t>2,47; 18,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 11,42</t>
+          <t>0,82; 17,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 41,37</t>
+          <t>3,41; 60,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 42,85</t>
+          <t>4,57; 66,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 43,3</t>
+          <t>5,73; 67,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 41,05</t>
+          <t>1,74; 65,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7B_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,77</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>17,77%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>23,49%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>21,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,54%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.771044894409128</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.881082858142723</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.252229779221031</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.430982376240363</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1777271848570856</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2159464945851189</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1960672630874586</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2105163233792575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 16,03</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 17,8</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 16,43</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 17,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 61,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-8,4; 72,54</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-13,69; 63,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 75,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.795788571655936</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.821745397460087</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.908771593674801</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.232145274756022</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.09608816574071055</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1019666066169937</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.128386382510435</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1225622984500963</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.02925562172923</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.80405492184707</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.30988352765204</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>16.83408666767939</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6133311389515386</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7065287830117841</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.6113225744695968</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6898590576056501</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>18,34</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>18,61</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,56</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>62,44%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>61,17%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>62,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>52,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 28,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 29,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 31,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 28,9</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>21,52; 123,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>19,37; 124,13</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>20,25; 138,79</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>12,36; 122,79</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>18.33788943198229</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>20.24229832469184</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>18.84146012096491</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>16.91465726737873</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.6243905421568587</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.7052282054903433</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6364862428627122</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5496484873862308</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>7.389980189545282</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>8.658185329485942</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>7.546768373147221</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.015908853116442</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.2151679134096663</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.2459922356134429</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2251540246667045</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1365961709495667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-38,07; 28,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-39,2; 28,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-30,58; 33,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-34,98; 28,31</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-68,57; 156,47</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-69,84; 160,42</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-55,07; 203,22</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-62,03; 144,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>28.84342623496679</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>31.20817555740432</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>31.426384481979</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>28.95655483297524</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.238973340463776</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.388604036341891</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.427560826252263</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.268940526379628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,17</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,87</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>31,64%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>34,36%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>35,72%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>31,08%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1937323879740382</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5211326244456416</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.366682112863797</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1848470905885635</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.004766039177940578</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.01194303501624864</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1615512453330769</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.004149546191163545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 16,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 17,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 18,24</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 17,45</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 60,51</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 66,21</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>5,73; 67,97</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 65,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-38.06716815032394</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-38.53968318009059</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-26.8320119508662</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-33.21748700622766</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6856605664458927</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6771939523401864</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5169242323854063</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5876653788648489</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>28.07786523741849</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>28.03339801866438</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>34.14215526779017</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>29.79578297620802</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.564721931406537</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.404618742129631</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.738258086193784</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.411331754075392</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>10.16880975849385</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.51521847228636</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>11.29343213263337</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.899959730629016</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3164085907406091</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.362728424843318</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3564028406674921</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3078467080221103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.417967656085331</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.944508343746828</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.518819183686897</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3830475350122456</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.03410327574101233</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.05740921887410996</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.06347890072225777</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.007849589395476262</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.94460923008631</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.50723378480081</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.13484847050765</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.40604570837083</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.605116034883787</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6997824166856714</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6744460178796456</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6530890210643888</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
